--- a/data/trans_dic/P12A1_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación 16-59 años</t>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,19%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,48; 74,37</t>
+          <t>4,01; 13,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,31; 52,61</t>
+          <t>4,33; 11,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,08; 52,79</t>
+          <t>7,13; 14,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,79; 56,05</t>
+          <t>2,75; 13,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,77; 39,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 36,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 38,81</t>
+          <t>4,09; 12,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,71; 46,18</t>
+          <t>4,39; 10,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,53; 49,08</t>
+          <t>5,02; 9,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 38,91</t>
+          <t>6,33; 15,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,37; 41,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,39; 48,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,86; 10,88</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 9,48</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 10,98</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 11,96</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>62,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,64; 63,79</t>
+          <t>4,46; 10,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,99; 63,5</t>
+          <t>4,79; 9,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,8; 58,96</t>
+          <t>5,36; 10,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,28; 74,36</t>
+          <t>4,03; 9,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,56; 57,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,4; 59,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,03; 62,24</t>
+          <t>3,95; 8,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,91; 68,19</t>
+          <t>4,52; 8,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,49; 56,91</t>
+          <t>5,27; 9,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>41,68; 58,07</t>
+          <t>6,97; 12,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,29; 56,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,94; 69,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 8,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 8,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 9,21</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 10,29</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,65%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>60,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,79; 72,8</t>
+          <t>2,87; 8,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,14; 72,88</t>
+          <t>3,51; 8,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,34; 68,67</t>
+          <t>2,54; 6,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,93; 88,96</t>
+          <t>4,23; 10,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,49; 60,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,42; 64,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,34; 58,55</t>
+          <t>2,13; 6,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,19; 67,26</t>
+          <t>3,2; 7,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,28; 60,55</t>
+          <t>3,04; 6,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>42,56; 64,7</t>
+          <t>3,06; 7,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,29; 56,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,9; 71,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 6,61</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 6,84</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 5,77</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 7,81</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,59%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>52,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,16; 61,94</t>
+          <t>4,54; 8,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,99; 58,5</t>
+          <t>6,35; 12,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,93; 53,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,31; 64,91</t>
+          <t>5,38; 11,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,31; 46,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,4; 45,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,01; 47,32</t>
+          <t>4,84; 9,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,23; 54,47</t>
+          <t>3,67; 8,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,63; 50,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,67; 49,24</t>
+          <t>4,93; 10,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,3; 47,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,01; 57,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 8,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,59; 9,6</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 10,19</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 8,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 8,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 8,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,51; 8,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 7,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 7,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 7,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 9,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 7,39</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 7,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 7,66</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 8,67</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25517</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37360</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>74126</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25635</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31042</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>44361</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65485</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>65863</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>56559</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>81720</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>139612</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>91498</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13599; 47451</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22779; 58062</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51574; 104579</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11959; 56904</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17253; 52717</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28018; 65187</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45114; 89737</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40818; 100982</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36952; 82772</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>58752; 110464</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>108292; 178125</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>59014; 129095</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63718</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>84233</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>121809</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68692</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62274</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>76674</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>105691</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>105973</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>125992</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>160907</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>227500</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>174665</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41573; 95154</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57850; 118510</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>86929; 166595</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43042; 102368</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39519; 88537</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>55764; 102184</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79476; 138366</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>74902; 137757</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>92306; 160665</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>127657; 201858</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>183555; 288305</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>135889; 220278</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36939</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47973</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>45056</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55154</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29347</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44406</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51445</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44446</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>66286</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>92379</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>96501</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>99599</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20439; 61475</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29684; 70901</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27820; 69351</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34963; 85893</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16353; 48651</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30155; 68424</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35298; 74184</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27490; 70537</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>43913; 97950</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>68910; 122257</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>71648; 130017</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>73228; 134519</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>95244</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>76939</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>87137</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>95722</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43254</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>72504</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>190966</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>120193</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>159641</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66161; 131023</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>54468; 107607</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>58982; 130861</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>67605; 128401</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28002; 64176</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>48343; 105555</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>150043; 240952</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>90608; 155626</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>122313; 211547</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>221417</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>246504</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>240992</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>236617</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>218385</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>208694</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>222621</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>288786</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>439802</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>455199</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>463613</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>525403</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>177079; 276546</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>203105; 296068</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>193965; 300226</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>188475; 300176</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>173713; 267873</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>171828; 251552</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>186745; 273211</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>237257; 345002</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>379634; 519770</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>397772; 527381</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>400227; 536494</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>448925; 608656</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
